--- a/Excel2FlatBuffers/ExcelTable/DTUIFormData.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/DTUIFormData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity_project\BoBo\Excel2FlatBuffers\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BoxBoxPro\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C3E146-E873-42EA-9170-5BC058783625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13430A8-9ABA-4E87-9639-C3C954C58CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>skip</t>
   </si>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>UIForm/UILobby/UILobbyForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +710,7 @@
   <dimension ref="A2:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,6 +938,26 @@
         <v>37</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>

--- a/Excel2FlatBuffers/ExcelTable/DTUIFormData.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/DTUIFormData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BoxBoxPro\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13430A8-9ABA-4E87-9639-C3C954C58CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288DEE10-AF6A-4170-84C3-D2182FB7AEC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>skip</t>
   </si>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>Normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIForm/StartWindow/StartWindow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +714,7 @@
   <dimension ref="A2:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -957,6 +961,9 @@
       <c r="G11" t="s">
         <v>38</v>
       </c>
+      <c r="H11" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C12" s="7"/>
